--- a/bot/excel_files/companies.xlsx
+++ b/bot/excel_files/companies.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -868,6 +868,133 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ЗАО "Элизиум девелопмент"</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 314503-3301-ЗАО</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 33772491</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02503202510458</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Бишкек</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ленинский район</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ленинский район</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> не заполненно</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ул. Калык Акиева</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 53</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0220202202</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> не заполненно</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> не заполненно</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Регистрация</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25.03.2025</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25.03.2025</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Частная</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Эстебесов Нурлан Аскарбекович</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Предоставление услуг гостиницами</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 55.10.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0</t>
+        </is>
+      </c>
+      <c r="X4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2</t>
+        </is>
+      </c>
+      <c r="Y4" s="2" t="inlineStr">
+        <is>
+          <t>Учредитель (участник) Ф.И.О. Шакиров Болотбек Таплаевич Учредитель (участник) Ф.И.О. Эстебесов Нурлан Аскарбекович</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
